--- a/ChemCatChem/MappingHeatmap_ChemCatChem.xlsx
+++ b/ChemCatChem/MappingHeatmap_ChemCatChem.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>AFO</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>ENVO</t>
-  </si>
-  <si>
-    <t>M3</t>
   </si>
   <si>
     <t>metadata4ing</t>
@@ -440,13 +437,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:22">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,13 +507,10 @@
       <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="1" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23">
-      <c r="A2" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -555,33 +549,30 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="O2">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>8</v>
+      </c>
+      <c r="T2">
+        <v>32</v>
+      </c>
+      <c r="U2">
         <v>3</v>
       </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>8</v>
-      </c>
-      <c r="U2">
-        <v>32</v>
-      </c>
       <c r="V2">
-        <v>3</v>
-      </c>
-      <c r="W2">
         <v>0</v>
       </c>
     </row>
